--- a/SmokeSuite/TestResource/Smoke/DS_SPN_SMOKE.xlsx
+++ b/SmokeSuite/TestResource/Smoke/DS_SPN_SMOKE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>serverAddress</t>
   </si>
@@ -50,9 +50,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>CORE@WPP123</t>
-  </si>
-  <si>
     <t>Fields</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>1/1/2020</t>
   </si>
   <si>
-    <t>GTF M Muthu Kumar</t>
-  </si>
-  <si>
     <t>CORE@WPP234</t>
   </si>
   <si>
@@ -348,6 +342,15 @@
   </si>
   <si>
     <t>https://wpp-trnemea.deltekenterprise.com</t>
+  </si>
+  <si>
+    <t>https://wpp-uatemea.deltekenterprise.com</t>
+  </si>
+  <si>
+    <t>uatemea</t>
+  </si>
+  <si>
+    <t>GTF Sai Kiran Vemula</t>
   </si>
 </sst>
 </file>
@@ -854,53 +857,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
       <c r="C1" s="3">
-        <v>1307</v>
+        <v>1008</v>
       </c>
       <c r="D1" s="3">
-        <v>1201</v>
-      </c>
-      <c r="E1" s="3">
         <v>1006</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -913,74 +910,60 @@
       <c r="D3" s="6">
         <v>443</v>
       </c>
-      <c r="E3" s="6">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
-    <hyperlink ref="E6" r:id="rId7"/>
-    <hyperlink ref="E2" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1000,146 +983,146 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1150,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,9 +1146,9 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1">
         <v>1707</v>
@@ -1173,10 +1156,13 @@
       <c r="C1">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>1707</v>
@@ -1184,10 +1170,13 @@
       <c r="C2">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1707106661</v>
@@ -1196,9 +1185,9 @@
         <v>100620354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1707106661</v>
@@ -1207,9 +1196,9 @@
         <v>100620354</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1707106659</v>
@@ -1218,9 +1207,9 @@
         <v>100620159</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>1707106659</v>
@@ -1237,17 +1226,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
@@ -1255,27 +1244,36 @@
       <c r="C1" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>94</v>
+      <c r="D3" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1287,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,9 +1300,9 @@
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
@@ -1312,10 +1310,13 @@
       <c r="C1" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
@@ -1323,30 +1324,39 @@
       <c r="C2" s="10">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1362,10 +1372,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,9 +1384,9 @@
     <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
@@ -1384,10 +1394,13 @@
       <c r="C1" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
@@ -1395,27 +1408,36 @@
       <c r="C2" s="10">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1429,17 +1451,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
@@ -1447,10 +1469,13 @@
       <c r="C1" s="3">
         <v>1006</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
@@ -1458,27 +1483,36 @@
       <c r="C2" s="10">
         <v>1006</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1489,44 +1523,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10">
         <v>1707</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1537,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,36 +1594,48 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>1707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>99</v>
+      <c r="C4" s="26" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="23">
         <v>1201</v>
@@ -1616,142 +1674,142 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="D7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
